--- a/8-missing-values/python-in-excel-missing-values-start.xlsx
+++ b/8-missing-values/python-in-excel-missing-values-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/8-missing-values/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\8-missing-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{05DB8540-284E-4043-A78D-DFB2A230E8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63FB8799-25F4-454D-A5E6-54743809D5D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C21C09-B440-4E2C-9684-EDC4C1493E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,18 +47,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -68,12 +61,9 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="1">
     <bk>
       <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -98,22 +88,8 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
-      <code>penguins_df = xl(%P2%, headers=True)
-penguins_df.isna().sum() / len(penguins_df)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sns.heatmap(penguins_df.isna(), cmap='viridis')
-plt.title('Heatmap of missing values')</code>
-    </pythonScript>
-    <pythonScript>
-      <code>penguins_df_dropna = penguins_df.dropna()
-penguins_df_dropna</code>
-    </pythonScript>
-    <pythonScript>
-      <code>penguins_df_dropna.shape</code>
-    </pythonScript>
-    <pythonScript>
-      <code>penguins_df.shape</code>
+      <code xml:space="preserve">penguins_df = xl(%P2%, headers=True)
+</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -267,60 +243,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>110718</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2D90CA-EE76-0D92-3E64-7DDCEC391B94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!J11"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7232487" y="1823590"/>
-          <a:ext cx="3562513" cy="3704204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -400,6 +322,15 @@
     <v>3250</v>
     <v t="s">female</v>
     <v>2007</v>
+    <v>3</v>
+    <v t="s">Adelie</v>
+    <v t="s">Torgersen</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">0</v>
+    <v t="r">1</v>
+    <v>2007</v>
     <v>4</v>
     <v t="s">Adelie</v>
     <v t="s">Torgersen</v>
@@ -408,15 +339,6 @@
     <v>193</v>
     <v>3450</v>
     <v t="s">female</v>
-    <v>2007</v>
-    <v>5</v>
-    <v t="s">Adelie</v>
-    <v t="s">Torgersen</v>
-    <v>39.299999999999997</v>
-    <v>20.6</v>
-    <v>190</v>
-    <v>3650</v>
-    <v t="s">male</v>
     <v>2007</v>
     <v t="s">...</v>
     <v t="s">...</v>
@@ -477,11 +399,14 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
-    <v>0</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
+    <fb>0</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>3</v>
   </rv>
   <rv s="1">
     <v>0</v>
@@ -489,7 +414,7 @@
   <rv s="2">
     <v>DataFrame</v>
     <v>1</v>
-    <v>1</v>
+    <v>2</v>
   </rv>
   <rv s="3">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
@@ -498,18 +423,16 @@
 0       Adelie  Torgersen            39.1           18.7              181.0   
 1       Adelie  Torgersen            39.5           17.4              186.0   
 2       Adelie ...</v>
-    <v>2</v>
-    <v>2</v>
+    <v>3</v>
+    <v>4</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
   </s>
   <s t="_array">
     <k n="array" t="a"/>
@@ -531,9 +454,9 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="3">
+  <spbData count="5">
     <spb s="0">
-      <v>333</v>
+      <v>344</v>
       <v>8</v>
       <v>DataFrame</v>
       <v>arrayPreview</v>
@@ -543,6 +466,12 @@
       <v>0</v>
     </spb>
     <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="3">
       <v>https://www.anaconda.com/excel</v>
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
@@ -552,7 +481,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <s>
     <k n="drw" t="i"/>
     <k n="dcol" t="i"/>
@@ -564,6 +493,9 @@
     <k n="ArrayCardInfo" t="spb"/>
   </s>
   <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
     <k n="url" t="s"/>
     <k n="logoUrl" t="s"/>
     <k n="description" t="s"/>
@@ -571,10 +503,25 @@
 </spbStructures>
 </file>
 
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"None"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,23 +860,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="8.52734375" customWidth="1"/>
-    <col min="3" max="3" width="15.3515625" customWidth="1"/>
+    <col min="1" max="2" width="8.5234375" customWidth="1"/>
+    <col min="3" max="3" width="15.3671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.17578125" customWidth="1"/>
-    <col min="6" max="6" width="13.64453125" customWidth="1"/>
-    <col min="7" max="8" width="6.1171875" customWidth="1"/>
-    <col min="10" max="10" width="15.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15625" customWidth="1"/>
+    <col min="6" max="6" width="13.62890625" customWidth="1"/>
+    <col min="7" max="8" width="6.1015625" customWidth="1"/>
+    <col min="10" max="10" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +903,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -981,15 +928,12 @@
       <c r="H2">
         <v>2007</v>
       </c>
-      <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2:K9">_xlfn._xlws.PY(0,0,penguins[#All])</f>
-        <v>species</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J2" t="e" cm="1" vm="1">
+        <f t="array" ref="J2">_xlfn._xlws.PY(0,1,penguins[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1014,14 +958,8 @@
       <c r="H3">
         <v>2007</v>
       </c>
-      <c r="J3" t="str">
-        <v>island</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1046,14 +984,8 @@
       <c r="H4">
         <v>2007</v>
       </c>
-      <c r="J4" t="str">
-        <v>bill_length_mm</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1063,14 +995,8 @@
       <c r="H5">
         <v>2007</v>
       </c>
-      <c r="J5" t="str">
-        <v>bill_depth_mm</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1095,14 +1021,8 @@
       <c r="H6">
         <v>2007</v>
       </c>
-      <c r="J6" t="str">
-        <v>flipper_length_mm</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1127,14 +1047,8 @@
       <c r="H7">
         <v>2007</v>
       </c>
-      <c r="J7" t="str">
-        <v>body_mass_g</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1159,14 +1073,8 @@
       <c r="H8">
         <v>2007</v>
       </c>
-      <c r="J8" t="str">
-        <v>sex</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3.1976744186046513E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1191,14 +1099,8 @@
       <c r="H9">
         <v>2007</v>
       </c>
-      <c r="J9" t="str">
-        <v>year</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1123,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1243,12 +1145,8 @@
       <c r="H11">
         <v>2007</v>
       </c>
-      <c r="J11" t="e" cm="1" vm="1">
-        <f t="array" ref="J11">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1169,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1192,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1218,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1244,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1270,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1296,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1322,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1348,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1374,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1400,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1426,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1452,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1478,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1504,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1530,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1556,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1582,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1608,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1634,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1660,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1686,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1813,12 +1711,8 @@
       <c r="H33">
         <v>2007</v>
       </c>
-      <c r="J33" t="e" cm="1" vm="2">
-        <f t="array" ref="J33">_xlfn._xlws.PY(2,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1738,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1869,16 +1763,9 @@
       <c r="H35">
         <v>2007</v>
       </c>
-      <c r="J35" cm="1">
-        <f t="array" ref="J35:J36">_xlfn._xlws.PY(3,0)</f>
-        <v>333</v>
-      </c>
-      <c r="K35" s="4" cm="1">
-        <f t="array" ref="K35:K36">_xlfn._xlws.PY(4,0)</f>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1903,14 +1790,9 @@
       <c r="H36">
         <v>2007</v>
       </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1818,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +1844,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1870,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +1896,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +1922,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +1948,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +1974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2000,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2026,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2052,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2078,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2104,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2127,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2153,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2297,7 +2179,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2205,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2231,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2257,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2401,7 +2283,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2309,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2335,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2361,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2505,7 +2387,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2531,7 +2413,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2439,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2583,7 +2465,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2491,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2635,7 +2517,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2543,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2687,7 +2569,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2713,7 +2595,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2621,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2647,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2673,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2817,7 +2699,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2843,7 +2725,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2869,7 +2751,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +2777,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2803,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2829,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +2855,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +2881,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3025,7 +2907,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3051,7 +2933,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3077,7 +2959,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +2985,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3011,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +3037,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3063,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3089,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3115,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3259,7 +3141,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3167,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3311,7 +3193,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3219,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3363,7 +3245,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3389,7 +3271,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3415,7 +3297,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3441,7 +3323,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3467,7 +3349,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3493,7 +3375,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3519,7 +3401,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3545,7 +3427,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3571,7 +3453,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3597,7 +3479,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3623,7 +3505,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3649,7 +3531,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3557,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3701,7 +3583,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3609,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3753,7 +3635,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +3661,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3687,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3713,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3857,7 +3739,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3883,7 +3765,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +3791,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3935,7 +3817,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3961,7 +3843,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +3869,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +3895,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +3921,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +3947,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4091,7 +3973,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +3999,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4143,7 +4025,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4051,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4195,7 +4077,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4221,7 +4103,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4247,7 +4129,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4273,7 +4155,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4299,7 +4181,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +4207,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4233,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4259,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4403,7 +4285,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4429,7 +4311,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4455,7 +4337,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4481,7 +4363,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4389,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4533,7 +4415,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4559,7 +4441,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4467,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4493,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4637,7 +4519,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4663,7 +4545,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4689,7 +4571,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4715,7 +4597,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4741,7 +4623,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4767,7 +4649,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4793,7 +4675,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4819,7 +4701,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4845,7 +4727,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4871,7 +4753,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4897,7 +4779,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4923,7 +4805,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4949,7 +4831,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4975,7 +4857,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -5001,7 +4883,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -5027,7 +4909,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -5053,7 +4935,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -5079,7 +4961,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -5105,7 +4987,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -5131,7 +5013,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5039,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5065,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5209,7 +5091,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -5235,7 +5117,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -5261,7 +5143,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -5287,7 +5169,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -5313,7 +5195,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5221,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -5365,7 +5247,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -5391,7 +5273,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -5417,7 +5299,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -5443,7 +5325,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -5469,7 +5351,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -5495,7 +5377,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5403,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -5547,7 +5429,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -5573,7 +5455,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -5599,7 +5481,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -5625,7 +5507,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -5648,7 +5530,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -5674,7 +5556,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +5582,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -5726,7 +5608,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -5752,7 +5634,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -5778,7 +5660,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -5804,7 +5686,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -5830,7 +5712,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -5856,7 +5738,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -5882,7 +5764,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5908,7 +5790,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5934,7 +5816,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5960,7 +5842,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -5986,7 +5868,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -6012,7 +5894,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6038,7 +5920,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -6064,7 +5946,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -6090,7 +5972,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -6116,7 +5998,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -6142,7 +6024,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -6168,7 +6050,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -6194,7 +6076,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6220,7 +6102,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -6246,7 +6128,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -6272,7 +6154,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -6298,7 +6180,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -6324,7 +6206,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -6350,7 +6232,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -6376,7 +6258,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -6402,7 +6284,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -6428,7 +6310,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -6454,7 +6336,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -6480,7 +6362,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -6506,7 +6388,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -6532,7 +6414,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -6558,7 +6440,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -6584,7 +6466,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -6610,7 +6492,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -6636,7 +6518,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -6662,7 +6544,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -6685,7 +6567,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -6711,7 +6593,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6619,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -6763,7 +6645,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -6789,7 +6671,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -6815,7 +6697,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -6841,7 +6723,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6749,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -6893,7 +6775,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6801,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -6945,7 +6827,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -6971,7 +6853,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -6997,7 +6879,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -7023,7 +6905,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -7049,7 +6931,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -7075,7 +6957,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -7101,7 +6983,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -7127,7 +7009,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -7153,7 +7035,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7061,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -7205,7 +7087,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -7231,7 +7113,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>14</v>
       </c>
@@ -7257,7 +7139,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -7283,7 +7165,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -7309,7 +7191,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -7335,7 +7217,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -7361,7 +7243,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -7387,7 +7269,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -7413,7 +7295,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -7439,7 +7321,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -7465,7 +7347,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -7491,7 +7373,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -7517,7 +7399,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -7543,7 +7425,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -7569,7 +7451,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -7595,7 +7477,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -7621,7 +7503,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -7647,7 +7529,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -7670,7 +7552,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -7696,7 +7578,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -7722,7 +7604,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -7748,7 +7630,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -7774,7 +7656,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -7800,7 +7682,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -7826,7 +7708,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -7852,7 +7734,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -7878,7 +7760,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7786,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -7930,7 +7812,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -7956,7 +7838,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -7979,7 +7861,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -8005,7 +7887,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +7913,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -8042,7 +7924,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -8068,7 +7950,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -8094,7 +7976,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -8120,7 +8002,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -8146,7 +8028,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -8172,7 +8054,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -8198,7 +8080,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -8224,7 +8106,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -8250,7 +8132,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +8158,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -8302,7 +8184,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -8328,7 +8210,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -8354,7 +8236,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -8380,7 +8262,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -8406,7 +8288,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -8432,7 +8314,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -8458,7 +8340,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -8484,7 +8366,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -8510,7 +8392,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -8536,7 +8418,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -8562,7 +8444,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -8588,7 +8470,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -8614,7 +8496,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -8640,7 +8522,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -8666,7 +8548,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -8692,7 +8574,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -8718,7 +8600,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -8744,7 +8626,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -8770,7 +8652,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -8796,7 +8678,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -8822,7 +8704,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -8848,7 +8730,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8874,7 +8756,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8782,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -8926,7 +8808,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -8952,7 +8834,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -8978,7 +8860,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -9004,7 +8886,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -9030,7 +8912,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -9056,7 +8938,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -9082,7 +8964,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -9108,7 +8990,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>15</v>
       </c>
@@ -9134,7 +9016,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -9160,7 +9042,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -9186,7 +9068,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -9212,7 +9094,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -9238,7 +9120,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -9264,7 +9146,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -9290,7 +9172,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -9316,7 +9198,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -9342,7 +9224,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -9368,7 +9250,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -9394,7 +9276,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -9420,7 +9302,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -9446,7 +9328,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -9472,7 +9354,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -9498,7 +9380,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -9524,7 +9406,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -9550,7 +9432,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -9576,7 +9458,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +9484,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -9628,7 +9510,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -9654,7 +9536,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -9680,7 +9562,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -9706,7 +9588,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -9732,7 +9614,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -9758,7 +9640,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -9784,7 +9666,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -9810,7 +9692,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -9836,7 +9718,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -9862,7 +9744,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -9888,7 +9770,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -9916,9 +9798,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>